--- a/votacoes_senado.xlsx
+++ b/votacoes_senado.xlsx
@@ -15,7 +15,7 @@
     <sheet name="senado" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">senado!$A$1:$F$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">senado!$A$1:$F$84</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="134">
   <si>
     <t>MDB</t>
   </si>
@@ -423,6 +423,12 @@
   </si>
   <si>
     <t>Não votou</t>
+  </si>
+  <si>
+    <t>PLP 2384-2023</t>
+  </si>
+  <si>
+    <t>Mauro Carvalho Junior</t>
   </si>
 </sst>
 </file>
@@ -740,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,9 +758,10 @@
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -773,8 +780,11 @@
       <c r="F1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -793,8 +803,11 @@
       <c r="F2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -813,8 +826,11 @@
       <c r="F3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -833,8 +849,11 @@
       <c r="F4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -853,8 +872,11 @@
       <c r="F5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -873,8 +895,11 @@
       <c r="F6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -893,8 +918,11 @@
       <c r="F7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -913,8 +941,11 @@
       <c r="F8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -933,8 +964,11 @@
       <c r="F9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -953,8 +987,11 @@
       <c r="F10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -973,8 +1010,11 @@
       <c r="F11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -993,8 +1033,11 @@
       <c r="F12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -1013,8 +1056,11 @@
       <c r="F13" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1033,8 +1079,11 @@
       <c r="F14" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1053,8 +1102,11 @@
       <c r="F15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1073,8 +1125,11 @@
       <c r="F16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -1093,8 +1148,11 @@
       <c r="F17" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -1113,8 +1171,11 @@
       <c r="F18" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -1133,8 +1194,11 @@
       <c r="F19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -1153,8 +1217,11 @@
       <c r="F20" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1173,8 +1240,11 @@
       <c r="F21" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -1193,8 +1263,11 @@
       <c r="F22" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1213,8 +1286,11 @@
       <c r="F23" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1227,8 +1303,11 @@
       <c r="F24" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1247,8 +1326,11 @@
       <c r="F25" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -1267,8 +1349,11 @@
       <c r="F26" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -1288,7 +1373,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1307,8 +1392,11 @@
       <c r="F28" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1327,8 +1415,11 @@
       <c r="F29" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1347,8 +1438,11 @@
       <c r="F30" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1367,8 +1461,11 @@
       <c r="F31" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1387,16 +1484,19 @@
       <c r="F32" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
         <v>68</v>
@@ -1405,178 +1505,205 @@
         <v>68</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="G33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
       <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
         <v>24</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>84</v>
       </c>
-      <c r="D34" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" t="s">
-        <v>85</v>
-      </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="F35" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="G35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="G36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="E37" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="G37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="E38" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="F38" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
         <v>125</v>
       </c>
       <c r="E39" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="F39" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>76</v>
       </c>
       <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
         <v>75</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>108</v>
       </c>
-      <c r="D40" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" t="s">
-        <v>90</v>
-      </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="G41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
         <v>68</v>
@@ -1587,16 +1714,19 @@
       <c r="F42" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D43" t="s">
         <v>68</v>
@@ -1607,39 +1737,45 @@
       <c r="F43" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
       <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
         <v>56</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>101</v>
       </c>
-      <c r="D44" t="s">
-        <v>68</v>
-      </c>
-      <c r="E44" t="s">
-        <v>68</v>
-      </c>
-      <c r="F44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" t="s">
-        <v>109</v>
-      </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="E45" t="s">
         <v>68</v>
@@ -1647,76 +1783,85 @@
       <c r="F45" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="D46" t="s">
         <v>131</v>
       </c>
       <c r="E46" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="F46" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
         <v>131</v>
       </c>
       <c r="E47" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="F47" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D48" t="s">
         <v>131</v>
       </c>
       <c r="E48" t="s">
-        <v>68</v>
-      </c>
-      <c r="F48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="E49" t="s">
         <v>68</v>
@@ -1724,16 +1869,19 @@
       <c r="F49" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
         <v>68</v>
@@ -1744,16 +1892,19 @@
       <c r="F50" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D51" t="s">
         <v>68</v>
@@ -1764,16 +1915,19 @@
       <c r="F51" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D52" t="s">
         <v>68</v>
@@ -1782,18 +1936,21 @@
         <v>68</v>
       </c>
       <c r="F52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="G52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D53" t="s">
         <v>68</v>
@@ -1802,18 +1959,21 @@
         <v>68</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="G53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D54" t="s">
         <v>68</v>
@@ -1824,16 +1984,19 @@
       <c r="F54" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D55" t="s">
         <v>68</v>
@@ -1844,16 +2007,19 @@
       <c r="F55" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D56" t="s">
         <v>68</v>
@@ -1864,99 +2030,114 @@
       <c r="F56" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D57" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="E57" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="F57" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="G57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>31</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D58" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="E58" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="G58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D59" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="E59" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="F59" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>31</v>
       </c>
       <c r="B60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" t="s">
+        <v>68</v>
+      </c>
+      <c r="G60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" t="s">
         <v>42</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>99</v>
       </c>
-      <c r="D60" t="s">
-        <v>68</v>
-      </c>
-      <c r="E60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F60" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" t="s">
-        <v>89</v>
-      </c>
       <c r="D61" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="E61" t="s">
         <v>68</v>
@@ -1964,56 +2145,65 @@
       <c r="F61" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>29</v>
       </c>
       <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" t="s">
+        <v>68</v>
+      </c>
+      <c r="G62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" t="s">
         <v>116</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>79</v>
       </c>
-      <c r="D62" t="s">
-        <v>68</v>
-      </c>
-      <c r="E62" t="s">
-        <v>131</v>
-      </c>
-      <c r="F62" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" t="s">
-        <v>43</v>
-      </c>
-      <c r="C63" t="s">
-        <v>88</v>
-      </c>
       <c r="D63" t="s">
         <v>68</v>
       </c>
       <c r="E63" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="F63" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>51</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D64" t="s">
         <v>68</v>
@@ -2024,16 +2214,19 @@
       <c r="F64" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>51</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D65" t="s">
         <v>68</v>
@@ -2044,16 +2237,19 @@
       <c r="F65" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>51</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D66" t="s">
         <v>68</v>
@@ -2062,18 +2258,21 @@
         <v>68</v>
       </c>
       <c r="F66" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="G66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>51</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="D67" t="s">
         <v>68</v>
@@ -2082,18 +2281,21 @@
         <v>68</v>
       </c>
       <c r="F67" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="G67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>51</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D68" t="s">
         <v>68</v>
@@ -2104,19 +2306,22 @@
       <c r="F68" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D69" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="E69" t="s">
         <v>68</v>
@@ -2124,76 +2329,88 @@
       <c r="F69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>51</v>
       </c>
       <c r="B70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F70" t="s">
+        <v>68</v>
+      </c>
+      <c r="G70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" t="s">
         <v>50</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>80</v>
       </c>
-      <c r="D70" t="s">
-        <v>68</v>
-      </c>
-      <c r="E70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F70" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="D71" t="s">
+        <v>68</v>
+      </c>
+      <c r="E71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F71" t="s">
+        <v>68</v>
+      </c>
+      <c r="G71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>57</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>58</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>69</v>
       </c>
-      <c r="D71" t="s">
-        <v>68</v>
-      </c>
-      <c r="E71" t="s">
-        <v>68</v>
-      </c>
-      <c r="F71" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>118</v>
-      </c>
-      <c r="B72" t="s">
-        <v>117</v>
-      </c>
-      <c r="C72" t="s">
-        <v>102</v>
-      </c>
       <c r="D72" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="E72" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="F72" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="G72" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>118</v>
       </c>
       <c r="B73" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C73" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D73" t="s">
         <v>125</v>
@@ -2202,18 +2419,21 @@
         <v>125</v>
       </c>
       <c r="F73" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="G73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>118</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D74" t="s">
         <v>125</v>
@@ -2224,79 +2444,91 @@
       <c r="F74" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>118</v>
       </c>
       <c r="B75" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" t="s">
+        <v>125</v>
+      </c>
+      <c r="E75" t="s">
+        <v>125</v>
+      </c>
+      <c r="F75" t="s">
+        <v>68</v>
+      </c>
+      <c r="G75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" t="s">
         <v>121</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>104</v>
       </c>
-      <c r="D75" t="s">
-        <v>125</v>
-      </c>
-      <c r="E75" t="s">
-        <v>125</v>
-      </c>
-      <c r="F75" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" t="s">
-        <v>115</v>
-      </c>
       <c r="D76" t="s">
         <v>125</v>
       </c>
       <c r="E76" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F76" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="D77" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="E77" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="F77" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D78" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="E78" t="s">
         <v>68</v>
@@ -2304,19 +2536,22 @@
       <c r="F78" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D79" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="E79" t="s">
         <v>68</v>
@@ -2324,19 +2559,22 @@
       <c r="F79" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D80" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="E80" t="s">
         <v>68</v>
@@ -2344,19 +2582,22 @@
       <c r="F80" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D81" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="E81" t="s">
         <v>68</v>
@@ -2364,36 +2605,33 @@
       <c r="F81" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
-      </c>
-      <c r="D82" t="s">
-        <v>125</v>
-      </c>
-      <c r="E82" t="s">
-        <v>125</v>
-      </c>
-      <c r="F82" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="G82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D83" t="s">
         <v>68</v>
@@ -2404,9 +2642,35 @@
       <c r="F83" t="s">
         <v>68</v>
       </c>
+      <c r="G83" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" t="s">
+        <v>125</v>
+      </c>
+      <c r="E84" t="s">
+        <v>125</v>
+      </c>
+      <c r="F84" t="s">
+        <v>68</v>
+      </c>
+      <c r="G84" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F83"/>
+  <autoFilter ref="A1:F84"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/votacoes_senado.xlsx
+++ b/votacoes_senado.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documentos\FattoVote-main\FattoVote-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BF50EB-1451-4330-84FF-656093362D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="senado" sheetId="12" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="135">
   <si>
     <t>MDB</t>
   </si>
@@ -429,12 +430,15 @@
   </si>
   <si>
     <t>Mauro Carvalho Junior</t>
+  </si>
+  <si>
+    <t>PL 2903-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -745,11 +749,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +765,7 @@
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -783,8 +787,11 @@
       <c r="G1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -806,8 +813,11 @@
       <c r="G2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -829,8 +839,11 @@
       <c r="G3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -852,8 +865,11 @@
       <c r="G4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -875,8 +891,11 @@
       <c r="G5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -898,8 +917,11 @@
       <c r="G6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -921,8 +943,11 @@
       <c r="G7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -944,8 +969,11 @@
       <c r="G8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -967,8 +995,11 @@
       <c r="G9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -990,8 +1021,11 @@
       <c r="G10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1013,8 +1047,11 @@
       <c r="G11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1036,8 +1073,11 @@
       <c r="G12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -1059,8 +1099,11 @@
       <c r="G13" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1082,8 +1125,11 @@
       <c r="G14" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1105,8 +1151,11 @@
       <c r="G15" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1128,8 +1177,11 @@
       <c r="G16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -1151,8 +1203,11 @@
       <c r="G17" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -1174,8 +1229,11 @@
       <c r="G18" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -1197,8 +1255,11 @@
       <c r="G19" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -1220,8 +1281,11 @@
       <c r="G20" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1243,8 +1307,11 @@
       <c r="G21" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -1266,8 +1333,11 @@
       <c r="G22" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1289,8 +1359,11 @@
       <c r="G23" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1306,8 +1379,11 @@
       <c r="G24" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1329,8 +1405,11 @@
       <c r="G25" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -1352,8 +1431,11 @@
       <c r="G26" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -1373,7 +1455,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1395,8 +1477,11 @@
       <c r="G28" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1418,8 +1503,11 @@
       <c r="G29" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1441,8 +1529,11 @@
       <c r="G30" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1464,8 +1555,11 @@
       <c r="G31" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1487,8 +1581,11 @@
       <c r="G32" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1510,8 +1607,11 @@
       <c r="G33" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1533,8 +1633,11 @@
       <c r="G34" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1556,8 +1659,11 @@
       <c r="G35" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -1579,8 +1685,11 @@
       <c r="G36" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -1602,8 +1711,11 @@
       <c r="G37" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1625,8 +1737,11 @@
       <c r="G38" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -1648,8 +1763,11 @@
       <c r="G39" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -1671,8 +1789,11 @@
       <c r="G40" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -1694,8 +1815,11 @@
       <c r="G41" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -1717,8 +1841,11 @@
       <c r="G42" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -1740,8 +1867,11 @@
       <c r="G43" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -1763,8 +1893,11 @@
       <c r="G44" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -1786,8 +1919,11 @@
       <c r="G45" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -1809,8 +1945,11 @@
       <c r="G46" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -1832,8 +1971,11 @@
       <c r="G47" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -1850,7 +1992,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -1872,8 +2014,11 @@
       <c r="G49" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -1895,8 +2040,11 @@
       <c r="G50" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -1918,8 +2066,11 @@
       <c r="G51" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -1941,8 +2092,11 @@
       <c r="G52" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -1964,8 +2118,11 @@
       <c r="G53" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -1987,8 +2144,11 @@
       <c r="G54" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -2010,8 +2170,11 @@
       <c r="G55" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -2033,8 +2196,11 @@
       <c r="G56" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -2056,8 +2222,11 @@
       <c r="G57" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -2079,8 +2248,11 @@
       <c r="G58" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -2102,8 +2274,11 @@
       <c r="G59" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -2125,8 +2300,11 @@
       <c r="G60" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>31</v>
       </c>
@@ -2148,8 +2326,11 @@
       <c r="G61" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -2171,8 +2352,11 @@
       <c r="G62" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -2194,8 +2378,11 @@
       <c r="G63" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -2217,8 +2404,11 @@
       <c r="G64" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -2240,8 +2430,11 @@
       <c r="G65" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>51</v>
       </c>
@@ -2263,8 +2456,11 @@
       <c r="G66" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -2286,8 +2482,11 @@
       <c r="G67" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -2309,8 +2508,11 @@
       <c r="G68" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>51</v>
       </c>
@@ -2332,8 +2534,11 @@
       <c r="G69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -2355,8 +2560,11 @@
       <c r="G70" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -2378,8 +2586,11 @@
       <c r="G71" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>57</v>
       </c>
@@ -2401,8 +2612,11 @@
       <c r="G72" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>118</v>
       </c>
@@ -2424,8 +2638,11 @@
       <c r="G73" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>118</v>
       </c>
@@ -2447,8 +2664,11 @@
       <c r="G74" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>118</v>
       </c>
@@ -2470,8 +2690,11 @@
       <c r="G75" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>118</v>
       </c>
@@ -2493,8 +2716,11 @@
       <c r="G76" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -2516,8 +2742,11 @@
       <c r="G77" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -2539,8 +2768,11 @@
       <c r="G78" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -2562,8 +2794,11 @@
       <c r="G79" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -2585,8 +2820,11 @@
       <c r="G80" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -2608,8 +2846,11 @@
       <c r="G81" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -2622,8 +2863,11 @@
       <c r="G82" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -2645,8 +2889,11 @@
       <c r="G83" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -2668,9 +2915,12 @@
       <c r="G84" t="s">
         <v>125</v>
       </c>
+      <c r="H84" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F84"/>
+  <autoFilter ref="A1:F84" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/votacoes_senado.xlsx
+++ b/votacoes_senado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documentos\FattoVote-main\FattoVote-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BF50EB-1451-4330-84FF-656093362D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E717132-0E2B-4824-82CA-3943CA2BEA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="senado" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">senado!$A$1:$F$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">senado!$A$1:$J$84</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="137">
   <si>
     <t>MDB</t>
   </si>
@@ -433,6 +433,12 @@
   </si>
   <si>
     <t>PL 2903-2023</t>
+  </si>
+  <si>
+    <t>PEC 45-2019 (1º TURNO)</t>
+  </si>
+  <si>
+    <t>PEC 45-2019 (2º TURNO)</t>
   </si>
 </sst>
 </file>
@@ -750,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,9 +769,10 @@
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -790,8 +797,14 @@
       <c r="H1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -816,8 +829,14 @@
       <c r="H2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -842,8 +861,14 @@
       <c r="H3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -868,8 +893,14 @@
       <c r="H4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -894,8 +925,14 @@
       <c r="H5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -920,8 +957,14 @@
       <c r="H6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -946,8 +989,14 @@
       <c r="H7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -972,8 +1021,14 @@
       <c r="H8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -998,8 +1053,14 @@
       <c r="H9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1024,8 +1085,14 @@
       <c r="H10" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1050,8 +1117,14 @@
       <c r="H11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1076,8 +1149,14 @@
       <c r="H12" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -1102,8 +1181,14 @@
       <c r="H13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1128,8 +1213,14 @@
       <c r="H14" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1154,8 +1245,14 @@
       <c r="H15" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1180,8 +1277,14 @@
       <c r="H16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -1206,8 +1309,14 @@
       <c r="H17" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -1232,8 +1341,14 @@
       <c r="H18" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -1258,8 +1373,14 @@
       <c r="H19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -1284,8 +1405,14 @@
       <c r="H20" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1310,8 +1437,14 @@
       <c r="H21" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -1336,8 +1469,14 @@
       <c r="H22" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1362,8 +1501,14 @@
       <c r="H23" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1382,8 +1527,14 @@
       <c r="H24" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1408,8 +1559,14 @@
       <c r="H25" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -1434,8 +1591,14 @@
       <c r="H26" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>125</v>
+      </c>
+      <c r="J26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -1454,8 +1617,14 @@
       <c r="F27" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>125</v>
+      </c>
+      <c r="J27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1480,8 +1649,14 @@
       <c r="H28" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1506,8 +1681,14 @@
       <c r="H29" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1532,8 +1713,14 @@
       <c r="H30" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>125</v>
+      </c>
+      <c r="J30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1558,8 +1745,14 @@
       <c r="H31" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1584,8 +1777,14 @@
       <c r="H32" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1610,8 +1809,14 @@
       <c r="H33" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>125</v>
+      </c>
+      <c r="J33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1636,8 +1841,14 @@
       <c r="H34" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1662,8 +1873,14 @@
       <c r="H35" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -1688,8 +1905,14 @@
       <c r="H36" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>68</v>
+      </c>
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -1714,8 +1937,14 @@
       <c r="H37" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1740,8 +1969,14 @@
       <c r="H38" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>125</v>
+      </c>
+      <c r="J38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -1766,8 +2001,14 @@
       <c r="H39" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -1792,8 +2033,14 @@
       <c r="H40" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>125</v>
+      </c>
+      <c r="J40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -1818,8 +2065,14 @@
       <c r="H41" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>125</v>
+      </c>
+      <c r="J41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -1844,8 +2097,14 @@
       <c r="H42" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>68</v>
+      </c>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -1870,8 +2129,14 @@
       <c r="H43" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -1896,8 +2161,14 @@
       <c r="H44" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+      <c r="J44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -1922,8 +2193,14 @@
       <c r="H45" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+      <c r="J45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -1948,8 +2225,14 @@
       <c r="H46" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+      <c r="J46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -1974,8 +2257,14 @@
       <c r="H47" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>68</v>
+      </c>
+      <c r="J47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -1992,7 +2281,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -2017,8 +2306,14 @@
       <c r="H49" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -2043,8 +2338,14 @@
       <c r="H50" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>131</v>
+      </c>
+      <c r="J50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -2069,8 +2370,14 @@
       <c r="H51" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>68</v>
+      </c>
+      <c r="J51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -2095,8 +2402,14 @@
       <c r="H52" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>68</v>
+      </c>
+      <c r="J52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -2121,8 +2434,14 @@
       <c r="H53" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>68</v>
+      </c>
+      <c r="J53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -2147,8 +2466,14 @@
       <c r="H54" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>68</v>
+      </c>
+      <c r="J54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -2173,8 +2498,14 @@
       <c r="H55" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -2199,8 +2530,14 @@
       <c r="H56" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>68</v>
+      </c>
+      <c r="J56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -2225,8 +2562,14 @@
       <c r="H57" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>68</v>
+      </c>
+      <c r="J57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -2251,8 +2594,14 @@
       <c r="H58" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>131</v>
+      </c>
+      <c r="J58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -2277,8 +2626,14 @@
       <c r="H59" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>68</v>
+      </c>
+      <c r="J59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -2303,8 +2658,14 @@
       <c r="H60" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>68</v>
+      </c>
+      <c r="J60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>31</v>
       </c>
@@ -2329,8 +2690,14 @@
       <c r="H61" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>68</v>
+      </c>
+      <c r="J61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -2355,8 +2722,14 @@
       <c r="H62" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>125</v>
+      </c>
+      <c r="J62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -2381,8 +2754,14 @@
       <c r="H63" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>68</v>
+      </c>
+      <c r="J63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -2407,8 +2786,14 @@
       <c r="H64" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>68</v>
+      </c>
+      <c r="J64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -2433,8 +2818,14 @@
       <c r="H65" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>68</v>
+      </c>
+      <c r="J65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>51</v>
       </c>
@@ -2459,8 +2850,14 @@
       <c r="H66" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" t="s">
+        <v>68</v>
+      </c>
+      <c r="J66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -2485,8 +2882,14 @@
       <c r="H67" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>68</v>
+      </c>
+      <c r="J67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -2511,8 +2914,14 @@
       <c r="H68" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>68</v>
+      </c>
+      <c r="J68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>51</v>
       </c>
@@ -2537,8 +2946,14 @@
       <c r="H69" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>68</v>
+      </c>
+      <c r="J69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -2563,8 +2978,14 @@
       <c r="H70" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
+        <v>68</v>
+      </c>
+      <c r="J70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -2589,8 +3010,14 @@
       <c r="H71" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
+        <v>68</v>
+      </c>
+      <c r="J71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>57</v>
       </c>
@@ -2615,8 +3042,14 @@
       <c r="H72" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" t="s">
+        <v>68</v>
+      </c>
+      <c r="J72" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>118</v>
       </c>
@@ -2641,8 +3074,14 @@
       <c r="H73" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" t="s">
+        <v>125</v>
+      </c>
+      <c r="J73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>118</v>
       </c>
@@ -2667,8 +3106,14 @@
       <c r="H74" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" t="s">
+        <v>125</v>
+      </c>
+      <c r="J74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>118</v>
       </c>
@@ -2693,8 +3138,14 @@
       <c r="H75" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>125</v>
+      </c>
+      <c r="J75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>118</v>
       </c>
@@ -2719,8 +3170,14 @@
       <c r="H76" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" t="s">
+        <v>125</v>
+      </c>
+      <c r="J76" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -2745,8 +3202,14 @@
       <c r="H77" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" t="s">
+        <v>68</v>
+      </c>
+      <c r="J77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -2771,8 +3234,14 @@
       <c r="H78" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" t="s">
+        <v>68</v>
+      </c>
+      <c r="J78" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -2797,8 +3266,14 @@
       <c r="H79" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" t="s">
+        <v>68</v>
+      </c>
+      <c r="J79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -2823,8 +3298,14 @@
       <c r="H80" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" t="s">
+        <v>68</v>
+      </c>
+      <c r="J80" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -2849,8 +3330,14 @@
       <c r="H81" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" t="s">
+        <v>68</v>
+      </c>
+      <c r="J81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -2867,7 +3354,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -2892,8 +3379,14 @@
       <c r="H83" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" t="s">
+        <v>68</v>
+      </c>
+      <c r="J83" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -2918,9 +3411,15 @@
       <c r="H84" t="s">
         <v>68</v>
       </c>
+      <c r="I84" t="s">
+        <v>125</v>
+      </c>
+      <c r="J84" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F84" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J84" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/votacoes_senado.xlsx
+++ b/votacoes_senado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documentos\FattoVote-main\FattoVote-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E717132-0E2B-4824-82CA-3943CA2BEA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731B091E-84E3-43E6-B8D7-029921B125EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="senado" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">senado!$A$1:$J$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">senado!$A$1:$J$85</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="139">
   <si>
     <t>MDB</t>
   </si>
@@ -439,6 +439,12 @@
   </si>
   <si>
     <t>PEC 45-2019 (2º TURNO)</t>
+  </si>
+  <si>
+    <t>Carlos Fávaro</t>
+  </si>
+  <si>
+    <t>PEC 8/2021 (1º TURNO)</t>
   </si>
 </sst>
 </file>
@@ -756,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,9 +776,11 @@
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -803,8 +811,11 @@
       <c r="J1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -835,8 +846,11 @@
       <c r="J2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -867,8 +881,11 @@
       <c r="J3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -899,8 +916,11 @@
       <c r="J4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -931,8 +951,11 @@
       <c r="J5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -963,8 +986,11 @@
       <c r="J6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -995,8 +1021,11 @@
       <c r="J7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1027,8 +1056,11 @@
       <c r="J8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1059,8 +1091,11 @@
       <c r="J9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1091,8 +1126,11 @@
       <c r="J10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1123,8 +1161,11 @@
       <c r="J11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1155,8 +1196,11 @@
       <c r="J12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -1187,8 +1231,11 @@
       <c r="J13" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1219,8 +1266,11 @@
       <c r="J14" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1251,8 +1301,11 @@
       <c r="J15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1283,8 +1336,11 @@
       <c r="J16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -1315,8 +1371,11 @@
       <c r="J17" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -1347,8 +1406,11 @@
       <c r="J18" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -1379,8 +1441,11 @@
       <c r="J19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -1411,8 +1476,11 @@
       <c r="J20" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1443,8 +1511,11 @@
       <c r="J21" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -1475,8 +1546,11 @@
       <c r="J22" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1507,8 +1581,11 @@
       <c r="J23" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1533,8 +1610,11 @@
       <c r="J24" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1565,8 +1645,11 @@
       <c r="J25" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -1597,8 +1680,11 @@
       <c r="J26" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -1623,8 +1709,11 @@
       <c r="J27" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1655,8 +1744,11 @@
       <c r="J28" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1687,8 +1779,11 @@
       <c r="J29" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1719,8 +1814,11 @@
       <c r="J30" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1751,8 +1849,11 @@
       <c r="J31" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1783,8 +1884,11 @@
       <c r="J32" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1815,8 +1919,11 @@
       <c r="J33" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1847,8 +1954,11 @@
       <c r="J34" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1879,8 +1989,11 @@
       <c r="J35" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -1911,8 +2024,11 @@
       <c r="J36" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -1943,8 +2059,11 @@
       <c r="J37" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1975,8 +2094,11 @@
       <c r="J38" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -2007,8 +2129,11 @@
       <c r="J39" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -2039,8 +2164,11 @@
       <c r="J40" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -2071,8 +2199,11 @@
       <c r="J41" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -2103,8 +2234,11 @@
       <c r="J42" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2135,8 +2269,11 @@
       <c r="J43" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -2167,8 +2304,11 @@
       <c r="J44" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -2199,8 +2339,11 @@
       <c r="J45" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -2231,100 +2374,88 @@
       <c r="J46" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47" t="s">
-        <v>131</v>
-      </c>
-      <c r="F47" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" t="s">
-        <v>68</v>
-      </c>
-      <c r="H47" t="s">
-        <v>68</v>
-      </c>
-      <c r="I47" t="s">
-        <v>68</v>
-      </c>
-      <c r="J47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="K47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
         <v>131</v>
       </c>
       <c r="E48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="F48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" t="s">
+        <v>68</v>
+      </c>
+      <c r="I48" t="s">
+        <v>68</v>
+      </c>
+      <c r="J48" t="s">
+        <v>68</v>
+      </c>
+      <c r="K48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D49" t="s">
         <v>131</v>
       </c>
       <c r="E49" t="s">
-        <v>68</v>
-      </c>
-      <c r="F49" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" t="s">
-        <v>131</v>
-      </c>
-      <c r="H49" t="s">
-        <v>125</v>
-      </c>
-      <c r="I49" t="s">
-        <v>68</v>
-      </c>
-      <c r="J49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D50" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="E50" t="s">
         <v>68</v>
@@ -2336,24 +2467,27 @@
         <v>131</v>
       </c>
       <c r="H50" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I50" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="J50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="K50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
         <v>68</v>
@@ -2365,27 +2499,30 @@
         <v>68</v>
       </c>
       <c r="G51" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="H51" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="I51" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="J51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="K51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D52" t="s">
         <v>68</v>
@@ -2397,10 +2534,10 @@
         <v>68</v>
       </c>
       <c r="G52" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="H52" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="I52" t="s">
         <v>68</v>
@@ -2408,16 +2545,19 @@
       <c r="J52" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D53" t="s">
         <v>68</v>
@@ -2426,13 +2566,13 @@
         <v>68</v>
       </c>
       <c r="F53" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="G53" t="s">
         <v>131</v>
       </c>
       <c r="H53" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="I53" t="s">
         <v>68</v>
@@ -2440,16 +2580,19 @@
       <c r="J53" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D54" t="s">
         <v>68</v>
@@ -2458,13 +2601,13 @@
         <v>68</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="G54" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="H54" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="I54" t="s">
         <v>68</v>
@@ -2472,16 +2615,19 @@
       <c r="J54" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D55" t="s">
         <v>68</v>
@@ -2493,10 +2639,10 @@
         <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="H55" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="I55" t="s">
         <v>68</v>
@@ -2505,15 +2651,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D56" t="s">
         <v>68</v>
@@ -2525,10 +2671,10 @@
         <v>68</v>
       </c>
       <c r="G56" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="H56" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="I56" t="s">
         <v>68</v>
@@ -2536,16 +2682,19 @@
       <c r="J56" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D57" t="s">
         <v>68</v>
@@ -2568,86 +2717,95 @@
       <c r="J57" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>31</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D58" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="E58" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="F58" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="G58" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="H58" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I58" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="J58" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="K58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="E59" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="G59" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="H59" t="s">
         <v>131</v>
       </c>
       <c r="I59" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="J59" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="K59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D60" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="E60" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="F60" t="s">
         <v>68</v>
@@ -2656,7 +2814,7 @@
         <v>68</v>
       </c>
       <c r="H60" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="I60" t="s">
         <v>68</v>
@@ -2664,51 +2822,57 @@
       <c r="J60" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>31</v>
       </c>
       <c r="B61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" t="s">
+        <v>131</v>
+      </c>
+      <c r="F61" t="s">
+        <v>68</v>
+      </c>
+      <c r="G61" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61" t="s">
+        <v>68</v>
+      </c>
+      <c r="I61" t="s">
+        <v>68</v>
+      </c>
+      <c r="J61" t="s">
+        <v>68</v>
+      </c>
+      <c r="K61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" t="s">
         <v>42</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>99</v>
       </c>
-      <c r="D61" t="s">
-        <v>68</v>
-      </c>
-      <c r="E61" t="s">
-        <v>68</v>
-      </c>
-      <c r="F61" t="s">
-        <v>68</v>
-      </c>
-      <c r="G61" t="s">
-        <v>68</v>
-      </c>
-      <c r="H61" t="s">
-        <v>125</v>
-      </c>
-      <c r="I61" t="s">
-        <v>68</v>
-      </c>
-      <c r="J61" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" t="s">
-        <v>89</v>
-      </c>
       <c r="D62" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="E62" t="s">
         <v>68</v>
@@ -2717,74 +2881,80 @@
         <v>68</v>
       </c>
       <c r="G62" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="H62" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I62" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="J62" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="K62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>29</v>
       </c>
       <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" t="s">
+        <v>68</v>
+      </c>
+      <c r="G63" t="s">
+        <v>125</v>
+      </c>
+      <c r="H63" t="s">
+        <v>131</v>
+      </c>
+      <c r="I63" t="s">
+        <v>125</v>
+      </c>
+      <c r="J63" t="s">
+        <v>125</v>
+      </c>
+      <c r="K63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" t="s">
         <v>116</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>79</v>
       </c>
-      <c r="D63" t="s">
-        <v>68</v>
-      </c>
-      <c r="E63" t="s">
-        <v>131</v>
-      </c>
-      <c r="F63" t="s">
-        <v>68</v>
-      </c>
-      <c r="G63" t="s">
-        <v>125</v>
-      </c>
-      <c r="H63" t="s">
-        <v>68</v>
-      </c>
-      <c r="I63" t="s">
-        <v>68</v>
-      </c>
-      <c r="J63" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" t="s">
-        <v>88</v>
-      </c>
       <c r="D64" t="s">
         <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="F64" t="s">
         <v>68</v>
       </c>
       <c r="G64" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="H64" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="I64" t="s">
         <v>68</v>
@@ -2792,16 +2962,19 @@
       <c r="J64" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>51</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D65" t="s">
         <v>68</v>
@@ -2824,16 +2997,19 @@
       <c r="J65" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>51</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C66" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D66" t="s">
         <v>68</v>
@@ -2856,16 +3032,19 @@
       <c r="J66" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>51</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D67" t="s">
         <v>68</v>
@@ -2874,7 +3053,7 @@
         <v>68</v>
       </c>
       <c r="F67" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="G67" t="s">
         <v>68</v>
@@ -2888,16 +3067,19 @@
       <c r="J67" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>51</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="D68" t="s">
         <v>68</v>
@@ -2906,7 +3088,7 @@
         <v>68</v>
       </c>
       <c r="F68" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="G68" t="s">
         <v>68</v>
@@ -2920,16 +3102,19 @@
       <c r="J68" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C69" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D69" t="s">
         <v>68</v>
@@ -2952,19 +3137,22 @@
       <c r="J69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>51</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D70" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="E70" t="s">
         <v>68</v>
@@ -2984,112 +3172,124 @@
       <c r="J70" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>51</v>
       </c>
       <c r="B71" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" t="s">
+        <v>105</v>
+      </c>
+      <c r="D71" t="s">
+        <v>131</v>
+      </c>
+      <c r="E71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F71" t="s">
+        <v>68</v>
+      </c>
+      <c r="G71" t="s">
+        <v>68</v>
+      </c>
+      <c r="H71" t="s">
+        <v>125</v>
+      </c>
+      <c r="I71" t="s">
+        <v>68</v>
+      </c>
+      <c r="J71" t="s">
+        <v>68</v>
+      </c>
+      <c r="K71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" t="s">
         <v>50</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>80</v>
       </c>
-      <c r="D71" t="s">
-        <v>68</v>
-      </c>
-      <c r="E71" t="s">
-        <v>68</v>
-      </c>
-      <c r="F71" t="s">
-        <v>68</v>
-      </c>
-      <c r="G71" t="s">
-        <v>68</v>
-      </c>
-      <c r="H71" t="s">
-        <v>131</v>
-      </c>
-      <c r="I71" t="s">
-        <v>68</v>
-      </c>
-      <c r="J71" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="D72" t="s">
+        <v>68</v>
+      </c>
+      <c r="E72" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" t="s">
+        <v>68</v>
+      </c>
+      <c r="G72" t="s">
+        <v>68</v>
+      </c>
+      <c r="H72" t="s">
+        <v>131</v>
+      </c>
+      <c r="I72" t="s">
+        <v>68</v>
+      </c>
+      <c r="J72" t="s">
+        <v>68</v>
+      </c>
+      <c r="K72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>57</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>58</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>69</v>
       </c>
-      <c r="D72" t="s">
-        <v>68</v>
-      </c>
-      <c r="E72" t="s">
-        <v>68</v>
-      </c>
-      <c r="F72" t="s">
-        <v>68</v>
-      </c>
-      <c r="G72" t="s">
-        <v>68</v>
-      </c>
-      <c r="H72" t="s">
-        <v>125</v>
-      </c>
-      <c r="I72" t="s">
-        <v>68</v>
-      </c>
-      <c r="J72" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>118</v>
-      </c>
-      <c r="B73" t="s">
-        <v>117</v>
-      </c>
-      <c r="C73" t="s">
-        <v>102</v>
-      </c>
       <c r="D73" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="E73" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="F73" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="G73" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="H73" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="I73" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="J73" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="K73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>118</v>
       </c>
       <c r="B74" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C74" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D74" t="s">
         <v>125</v>
@@ -3098,7 +3298,7 @@
         <v>125</v>
       </c>
       <c r="F74" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="G74" t="s">
         <v>125</v>
@@ -3112,16 +3312,19 @@
       <c r="J74" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>118</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C75" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D75" t="s">
         <v>125</v>
@@ -3144,86 +3347,95 @@
       <c r="J75" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>118</v>
       </c>
       <c r="B76" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E76" t="s">
+        <v>125</v>
+      </c>
+      <c r="F76" t="s">
+        <v>68</v>
+      </c>
+      <c r="G76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H76" t="s">
+        <v>68</v>
+      </c>
+      <c r="I76" t="s">
+        <v>125</v>
+      </c>
+      <c r="J76" t="s">
+        <v>125</v>
+      </c>
+      <c r="K76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" t="s">
         <v>121</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>104</v>
       </c>
-      <c r="D76" t="s">
-        <v>125</v>
-      </c>
-      <c r="E76" t="s">
-        <v>125</v>
-      </c>
-      <c r="F76" t="s">
-        <v>68</v>
-      </c>
-      <c r="G76" t="s">
-        <v>125</v>
-      </c>
-      <c r="H76" t="s">
-        <v>68</v>
-      </c>
-      <c r="I76" t="s">
-        <v>125</v>
-      </c>
-      <c r="J76" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>11</v>
-      </c>
-      <c r="B77" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" t="s">
-        <v>115</v>
-      </c>
       <c r="D77" t="s">
         <v>125</v>
       </c>
       <c r="E77" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F77" t="s">
         <v>68</v>
       </c>
       <c r="G77" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H77" t="s">
         <v>68</v>
       </c>
       <c r="I77" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="J77" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="K77" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="D78" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="E78" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="F78" t="s">
         <v>68</v>
@@ -3240,19 +3452,22 @@
       <c r="J78" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D79" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="E79" t="s">
         <v>68</v>
@@ -3261,7 +3476,7 @@
         <v>68</v>
       </c>
       <c r="G79" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="H79" t="s">
         <v>68</v>
@@ -3272,19 +3487,22 @@
       <c r="J79" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D80" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="E80" t="s">
         <v>68</v>
@@ -3304,19 +3522,22 @@
       <c r="J80" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D81" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="E81" t="s">
         <v>68</v>
@@ -3325,7 +3546,7 @@
         <v>68</v>
       </c>
       <c r="G81" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="H81" t="s">
         <v>68</v>
@@ -3336,16 +3557,28 @@
       <c r="J81" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C82" t="s">
-        <v>100</v>
+        <v>115</v>
+      </c>
+      <c r="D82" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82" t="s">
+        <v>68</v>
+      </c>
+      <c r="F82" t="s">
+        <v>68</v>
       </c>
       <c r="G82" t="s">
         <v>125</v>
@@ -3353,73 +3586,105 @@
       <c r="H82" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I82" t="s">
+        <v>68</v>
+      </c>
+      <c r="J82" t="s">
+        <v>68</v>
+      </c>
+      <c r="K82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="C83" t="s">
-        <v>94</v>
-      </c>
-      <c r="D83" t="s">
-        <v>68</v>
-      </c>
-      <c r="E83" t="s">
-        <v>68</v>
-      </c>
-      <c r="F83" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="G83" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="H83" t="s">
         <v>68</v>
       </c>
-      <c r="I83" t="s">
-        <v>68</v>
-      </c>
-      <c r="J83" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>11</v>
       </c>
       <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" t="s">
+        <v>94</v>
+      </c>
+      <c r="D84" t="s">
+        <v>68</v>
+      </c>
+      <c r="E84" t="s">
+        <v>68</v>
+      </c>
+      <c r="F84" t="s">
+        <v>68</v>
+      </c>
+      <c r="G84" t="s">
+        <v>68</v>
+      </c>
+      <c r="H84" t="s">
+        <v>68</v>
+      </c>
+      <c r="I84" t="s">
+        <v>68</v>
+      </c>
+      <c r="J84" t="s">
+        <v>68</v>
+      </c>
+      <c r="K84" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
         <v>123</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>103</v>
       </c>
-      <c r="D84" t="s">
-        <v>125</v>
-      </c>
-      <c r="E84" t="s">
-        <v>125</v>
-      </c>
-      <c r="F84" t="s">
-        <v>68</v>
-      </c>
-      <c r="G84" t="s">
-        <v>125</v>
-      </c>
-      <c r="H84" t="s">
-        <v>68</v>
-      </c>
-      <c r="I84" t="s">
-        <v>125</v>
-      </c>
-      <c r="J84" t="s">
-        <v>125</v>
+      <c r="D85" t="s">
+        <v>125</v>
+      </c>
+      <c r="E85" t="s">
+        <v>125</v>
+      </c>
+      <c r="F85" t="s">
+        <v>68</v>
+      </c>
+      <c r="G85" t="s">
+        <v>125</v>
+      </c>
+      <c r="H85" t="s">
+        <v>68</v>
+      </c>
+      <c r="I85" t="s">
+        <v>125</v>
+      </c>
+      <c r="J85" t="s">
+        <v>125</v>
+      </c>
+      <c r="K85" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J84" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J85" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
